--- a/FOREX/data/FOREX_6A_historical.xlsx
+++ b/FOREX/data/FOREX_6A_historical.xlsx
@@ -7551,7 +7551,9 @@
       <c r="CD34" t="n">
         <v>96.7957427869885</v>
       </c>
-      <c r="CE34" t="inlineStr"/>
+      <c r="CE34" t="n">
+        <v>93.2180924116109</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -21541,7 +21543,9 @@
       <c r="CD100" t="n">
         <v>1192</v>
       </c>
-      <c r="CE100" t="inlineStr"/>
+      <c r="CE100" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -24851,7 +24855,9 @@
       <c r="CD116" t="n">
         <v>9143.935839868091</v>
       </c>
-      <c r="CE116" t="inlineStr"/>
+      <c r="CE116" t="n">
+        <v>9697.91578947368</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -40493,7 +40499,7 @@
         <v>9.309545454545461</v>
       </c>
       <c r="CE191" t="n">
-        <v>18.238666375</v>
+        <v>18.2386666666667</v>
       </c>
     </row>
     <row r="192">
@@ -42027,7 +42033,9 @@
       <c r="CD198" t="n">
         <v>2294.14615050509</v>
       </c>
-      <c r="CE198" t="inlineStr"/>
+      <c r="CE198" t="n">
+        <v>2297.76422623792</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -42978,7 +42986,7 @@
         <v>2.29956150787889</v>
       </c>
       <c r="CE202" t="n">
-        <v>2.26310728305551</v>
+        <v>2.26495960050055</v>
       </c>
     </row>
     <row r="203">
@@ -43676,7 +43684,9 @@
       <c r="CD205" t="n">
         <v>7.00860541558522</v>
       </c>
-      <c r="CE205" t="inlineStr"/>
+      <c r="CE205" t="n">
+        <v>8.850407549283149</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_6A_historical.xlsx
+++ b/FOREX/data/FOREX_6A_historical.xlsx
@@ -17370,7 +17370,9 @@
       <c r="CD81" t="n">
         <v>5.59570833333333</v>
       </c>
-      <c r="CE81" t="inlineStr"/>
+      <c r="CE81" t="n">
+        <v>5.8057</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -37569,7 +37571,9 @@
       <c r="CD176" t="n">
         <v>9829.92676332375</v>
       </c>
-      <c r="CE176" t="inlineStr"/>
+      <c r="CE176" t="n">
+        <v>10439.4253304236</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_6A_historical.xlsx
+++ b/FOREX/data/FOREX_6A_historical.xlsx
@@ -33989,40 +33989,40 @@
         <v>5974.5775</v>
       </c>
       <c r="BO159" t="n">
-        <v>6177.95833333333</v>
+        <v>6177.9349469697</v>
       </c>
       <c r="BP159" t="n">
-        <v>5635.4625</v>
+        <v>5635.09393939394</v>
       </c>
       <c r="BQ159" t="n">
-        <v>5032.71666666667</v>
+        <v>5032.71157647908</v>
       </c>
       <c r="BR159" t="n">
-        <v>4363.24166666667</v>
+        <v>4363.29160824492</v>
       </c>
       <c r="BS159" t="n">
-        <v>4965.39166666667</v>
+        <v>4966.68229650212</v>
       </c>
       <c r="BT159" t="n">
-        <v>4735.46166666667</v>
+        <v>4758.43012878788</v>
       </c>
       <c r="BU159" t="n">
-        <v>4191.41625</v>
+        <v>4193.8023075919</v>
       </c>
       <c r="BV159" t="n">
-        <v>4424.9175</v>
+        <v>4421.65928640414</v>
       </c>
       <c r="BW159" t="n">
-        <v>4320.67416666667</v>
+        <v>4303.88256599819</v>
       </c>
       <c r="BX159" t="n">
-        <v>4462.19166666667</v>
+        <v>4462.18528829093</v>
       </c>
       <c r="BY159" t="n">
-        <v>5204.91</v>
+        <v>5204.92080811087</v>
       </c>
       <c r="BZ159" t="n">
-        <v>5670.51743118687</v>
+        <v>5670.54089799784</v>
       </c>
       <c r="CA159" t="n">
         <v>5618.9334516428</v>
@@ -37534,55 +37534,55 @@
         <v>2701.29666666667</v>
       </c>
       <c r="BO176" t="n">
-        <v>2889.5875</v>
+        <v>2.8895875</v>
       </c>
       <c r="BP176" t="n">
-        <v>2961.90916666667</v>
+        <v>2.96190916666667</v>
       </c>
       <c r="BQ176" t="n">
-        <v>2985.18583333333</v>
+        <v>2.98518583333333</v>
       </c>
       <c r="BR176" t="n">
-        <v>2981.515</v>
+        <v>2.981515</v>
       </c>
       <c r="BS176" t="n">
-        <v>3385.65</v>
+        <v>3.38565</v>
       </c>
       <c r="BT176" t="n">
-        <v>3978.08666666667</v>
+        <v>3.97808666666667</v>
       </c>
       <c r="BU176" t="n">
-        <v>4349.16166666667</v>
+        <v>4.34916166666667</v>
       </c>
       <c r="BV176" t="n">
-        <v>4344.03666666667</v>
+        <v>4.34403666666667</v>
       </c>
       <c r="BW176" t="n">
-        <v>4332.50083333333</v>
+        <v>4.33250083333333</v>
       </c>
       <c r="BX176" t="n">
-        <v>4524.15916666667</v>
+        <v>4.52415916666667</v>
       </c>
       <c r="BY176" t="n">
-        <v>5080.7475</v>
+        <v>5.0807475</v>
       </c>
       <c r="BZ176" t="n">
-        <v>6290.29741495228</v>
+        <v>6.29029741495228</v>
       </c>
       <c r="CA176" t="n">
-        <v>7384.43222248692</v>
+        <v>7.38443222248692</v>
       </c>
       <c r="CB176" t="n">
-        <v>7931.63174973728</v>
+        <v>7.93163174973728</v>
       </c>
       <c r="CC176" t="n">
-        <v>9010.221144009151</v>
+        <v>9.010221144009151</v>
       </c>
       <c r="CD176" t="n">
-        <v>9829.92676332375</v>
+        <v>9.829926763323749</v>
       </c>
       <c r="CE176" t="n">
-        <v>10439.4253194587</v>
+        <v>10.4394253194587</v>
       </c>
     </row>
     <row r="177">
@@ -39351,7 +39351,9 @@
       <c r="CD186" t="n">
         <v>185.592557772213</v>
       </c>
-      <c r="CE186" t="inlineStr"/>
+      <c r="CE186" t="n">
+        <v>198.764316844656</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -41434,7 +41436,9 @@
       <c r="CD195" t="n">
         <v>21.5070590993582</v>
       </c>
-      <c r="CE195" t="inlineStr"/>
+      <c r="CE195" t="n">
+        <v>20.7104015163031</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
